--- a/testData/passwd_envelope_test_data.xlsx
+++ b/testData/passwd_envelope_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="add_passwd_envelope" sheetId="3" r:id="rId1"/>
@@ -190,16 +190,16 @@
     <t xml:space="preserve"> test_F06_S09_T10_checkout_011</t>
   </si>
   <si>
-    <t>172.16.10.19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.10.19</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>打印服务器地址格式有误</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.13</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -688,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -738,7 +738,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E2" s="8">
         <v>8890</v>
@@ -934,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1043,7 +1043,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10" t="s">
